--- a/data/macro/USA/USPMI.xlsx
+++ b/data/macro/USA/USPMI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A0DD0-7A19-49DE-A4A3-1F53127D5173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372F20A-C615-4D14-B2A3-99AFF812DCB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="780" windowWidth="19395" windowHeight="20700" xr2:uid="{0DE2917F-A9F0-C04F-BB97-3733FD6C8746}"/>
+    <workbookView xWindow="16605" yWindow="780" windowWidth="19395" windowHeight="20700" activeTab="2" xr2:uid="{0DE2917F-A9F0-C04F-BB97-3733FD6C8746}"/>
   </bookViews>
   <sheets>
     <sheet name="NAPMPMI" sheetId="1" r:id="rId1"/>
-    <sheet name="NAPMNPMI" sheetId="2" r:id="rId2"/>
-    <sheet name="NAPMNEWO" sheetId="4" r:id="rId3"/>
+    <sheet name="NAPMNMI" sheetId="2" r:id="rId2"/>
+    <sheet name="NAPMNNO" sheetId="4" r:id="rId3"/>
     <sheet name="NAPMNSD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -64,12 +64,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -130,33 +130,33 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF67A92-ADBD-0745-9FE5-B9C5971015D9}">
   <dimension ref="A1:G674"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H657" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="H666" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E675" sqref="E675"/>
@@ -15516,10 +15516,10 @@
   <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
+      <selection pane="bottomRight" activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -23473,6 +23473,9 @@
         <f t="shared" si="5"/>
         <v>UTC-5</v>
       </c>
+      <c r="E343" s="9">
+        <v>54.4</v>
+      </c>
       <c r="F343" s="9">
         <v>52.2</v>
       </c>
@@ -23490,11 +23493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A96048-4AA7-4D08-9D09-84880E5018F3}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H318" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K346" sqref="K346"/>
+      <selection pane="bottomRight" activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -30885,6 +30888,12 @@
         <f t="shared" si="5"/>
         <v>UTC-5</v>
       </c>
+      <c r="E343" s="8">
+        <v>57.9</v>
+      </c>
+      <c r="F343" s="8">
+        <v>52.6</v>
+      </c>
       <c r="G343" s="8">
         <v>52.9</v>
       </c>
@@ -30906,7 +30915,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J337" sqref="J337"/>
+      <selection pane="bottomRight" activeCell="G349" sqref="G349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -38303,6 +38312,12 @@
         <f t="shared" si="5"/>
         <v>UTC-5</v>
       </c>
+      <c r="E343" s="8">
+        <v>52</v>
+      </c>
+      <c r="F343" s="8">
+        <v>49</v>
+      </c>
       <c r="G343" s="8">
         <v>48.9</v>
       </c>
